--- a/examples/reports/az-az/CompanyProceduresReportTemplate.xlsx
+++ b/examples/reports/az-az/CompanyProceduresReportTemplate.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bidzaar\src\etplight\backend\services\reportgenerator\src\Cognitive.ReportGenerator\Templates\az-az\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C76FC30-9CA0-40A9-A1FB-B9CFD66B0570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,33 +25,31 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="M6" authorId="0">
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Все участники запроса, в т.ч. – приглашённые с площадки и по имейл</t>
+          <t>Все участники запроса, в т.ч. – приглашённые с площадки и по имейл</t>
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Приняли участие
@@ -54,84 +57,78 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0">
+    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Поданные предложения</t>
+          <t>Поданные предложения</t>
         </r>
       </text>
     </comment>
-    <comment ref="P6" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Только для завершённых запросов</t>
+          <t>Только для завершённых запросов</t>
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Цена заказа для завершённых запросов</t>
+          <t>Цена заказа для завершённых запросов</t>
         </r>
       </text>
     </comment>
-    <comment ref="S6" authorId="0">
+    <comment ref="S7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Члены команды запроса с правами «Владелец»</t>
+          <t>Члены команды запроса с правами «Владелец»</t>
         </r>
       </text>
     </comment>
-    <comment ref="U6" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Введённое значение в итогах для завершённых запросов </t>
         </r>
       </text>
     </comment>
-    <comment ref="V6" authorId="0">
+    <comment ref="W7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Цена худшего предложения среди начальных предложений участников
@@ -139,42 +136,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="W6" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Цена лучшего предложения среди начальных предложений участников</t>
+          <t>Цена лучшего предложения среди начальных предложений участников</t>
         </r>
       </text>
     </comment>
-    <comment ref="X6" authorId="0">
+    <comment ref="Y7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Цена начального предложения победителя</t>
+          <t>Цена начального предложения победителя</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y6" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Средняя цена среди начальных предложений участников
@@ -182,31 +176,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z6" authorId="0">
+    <comment ref="AA7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Параметр запроса «Объем предложения участника»</t>
+          <t>Параметр запроса «Объем предложения участника»</t>
         </r>
       </text>
     </comment>
-    <comment ref="AA6" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Число просмотров запроса сотрудниками других компаний</t>
+          <t>Число просмотров запроса сотрудниками других компаний</t>
         </r>
       </text>
     </comment>
@@ -215,273 +207,256 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
-  <si>
-    <t xml:space="preserve">Mənim şirkətimin sorğuları</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProcureSaaS xidməti tərəfindən $.Now -da yaradılıb. Sənəddəki vaxt $.Tz vaxtıdır.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Şirkət</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.CreatedCompany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorğunun kodu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorğu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorğu növü</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Büdcə</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorğu kateqoriyası</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valyuta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qalibin seçimi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yaradılıb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dərc olunub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Təklif qəbulunun son tarixi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamamlanıb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bütün iştirakçılar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İçtirak ediblər</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Təklifləri ilə iştirakçılar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qalibləri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qaliblər</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sifarişin qiyməti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahiblər</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qiymətin dəyişdirilməsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qənaət</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İlkin ən əlverişsiz təklif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İlkin ən yaxşı təklif</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Qalibin ilkin təklifi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İlkin təkliflərin ortam qiyməti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Təklifin həcmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baxışlar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teqlər</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Nds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].CreatedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].PublishDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].AcceptanceEndDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FinishDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].AllParticipants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].ParticipantsCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].ProposalsCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].WinnersCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Winners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].OrderPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Responsible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].ChangeType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Saving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FirstWorstPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FirstBestPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FirstWinnerPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FirstAveragePrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].RequireFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].ViewCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Tags</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>Şirkət</t>
+  </si>
+  <si>
+    <t>$.CreatedCompany</t>
+  </si>
+  <si>
+    <t>Sorğunun kodu</t>
+  </si>
+  <si>
+    <t>Sorğu</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Sorğu növü</t>
+  </si>
+  <si>
+    <t>Büdcə</t>
+  </si>
+  <si>
+    <t>Sorğu kateqoriyası</t>
+  </si>
+  <si>
+    <t>Valyuta</t>
+  </si>
+  <si>
+    <t>Qalibin seçimi</t>
+  </si>
+  <si>
+    <t>Yaradılıb</t>
+  </si>
+  <si>
+    <t>Dərc olunub</t>
+  </si>
+  <si>
+    <t>Təklif qəbulunun son tarixi</t>
+  </si>
+  <si>
+    <t>Tamamlanıb</t>
+  </si>
+  <si>
+    <t>Bütün iştirakçılar</t>
+  </si>
+  <si>
+    <t>İçtirak ediblər</t>
+  </si>
+  <si>
+    <t>Təklifləri ilə iştirakçılar</t>
+  </si>
+  <si>
+    <t>Qalibləri</t>
+  </si>
+  <si>
+    <t>Qaliblər</t>
+  </si>
+  <si>
+    <t>Sifarişin qiyməti</t>
+  </si>
+  <si>
+    <t>Sahiblər</t>
+  </si>
+  <si>
+    <t>Qiymətin dəyişdirilməsi</t>
+  </si>
+  <si>
+    <t>Qənaət</t>
+  </si>
+  <si>
+    <t>İlkin ən əlverişsiz təklif</t>
+  </si>
+  <si>
+    <t>İlkin ən yaxşı təklif</t>
+  </si>
+  <si>
+    <t> Qalibin ilkin təklifi</t>
+  </si>
+  <si>
+    <t>İlkin təkliflərin ortam qiyməti</t>
+  </si>
+  <si>
+    <t>Təklifin həcmi</t>
+  </si>
+  <si>
+    <t>Baxışlar</t>
+  </si>
+  <si>
+    <t>Teqlər</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Number</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Name</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Status</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Type</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Budget</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Category</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Currency</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Nds</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].CreatedDate</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].PublishDate</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].AcceptanceEndDate</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FinishDate</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].AllParticipants</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ParticipantsCount</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ProposalsCount</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].WinnersCount</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Winners</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].OrderPrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Responsible</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ChangeType</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Saving</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FirstWorstPrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FirstBestPrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FirstWinnerPrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FirstAveragePrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].RequireFull</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ViewCount</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Tags</t>
+  </si>
+  <si>
+    <t>$.BrandName xidməti tərəfindən $.Now -da yaradılıb. Sənəddəki vaxt $.Tz vaxtıdır.</t>
+  </si>
+  <si>
+    <t>Hesabat dövrü</t>
+  </si>
+  <si>
+    <t>$.Period</t>
+  </si>
+  <si>
+    <t>$.ReportName</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Fee</t>
+  </si>
+  <si>
+    <t>Xidmət operatorunun komissiyasını kim ödəyir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="#\ ##0.00"/>
-    <numFmt numFmtId="168" formatCode="#\ ##0.00&quot; ₽&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="#\ ##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -494,21 +469,23 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -520,106 +497,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -678,336 +605,597 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="9" style="0" width="16.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="58.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="21" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="27.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="105.27"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" customWidth="1"/>
+    <col min="11" max="11" width="27.88671875" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" customWidth="1"/>
+    <col min="14" max="14" width="30.5546875" customWidth="1"/>
+    <col min="15" max="15" width="24.44140625" customWidth="1"/>
+    <col min="16" max="17" width="16.44140625" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" customWidth="1"/>
+    <col min="20" max="20" width="22" customWidth="1"/>
+    <col min="21" max="21" width="58.6640625" customWidth="1"/>
+    <col min="22" max="26" width="20.6640625" customWidth="1"/>
+    <col min="27" max="27" width="27.21875" customWidth="1"/>
+    <col min="28" max="28" width="13.5546875" customWidth="1"/>
+    <col min="29" max="29" width="105.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:65" ht="23.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:65" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" s="6" customFormat="1" ht="33.6" customHeight="1" thickBot="1">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="6" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA6" s="4" t="s">
+    <row r="8" spans="1:65" ht="15.6">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="5"/>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="J8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="M8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="N8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="Q8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="S8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="T8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="V8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="W8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="X8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="Y8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="Z8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="AA8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="AB8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AC8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AA7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="12"/>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="12"/>
-      <c r="BG7" s="12"/>
-      <c r="BH7" s="12"/>
-      <c r="BI7" s="12"/>
-      <c r="BJ7" s="12"/>
-      <c r="BK7" s="12"/>
-      <c r="BL7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
@@ -1044,13 +1232,13 @@
       <c r="BK8" s="12"/>
       <c r="BL8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:65">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1064,7 +1252,6 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
@@ -1110,13 +1297,13 @@
       <c r="BK9" s="12"/>
       <c r="BL9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:65">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1130,7 +1317,6 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -1176,13 +1362,13 @@
       <c r="BK10" s="12"/>
       <c r="BL10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:65">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1196,7 +1382,6 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
@@ -1242,13 +1427,13 @@
       <c r="BK11" s="12"/>
       <c r="BL11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:65">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1262,7 +1447,6 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
@@ -1308,13 +1492,13 @@
       <c r="BK12" s="12"/>
       <c r="BL12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:65">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1328,7 +1512,6 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -1374,13 +1557,13 @@
       <c r="BK13" s="12"/>
       <c r="BL13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:65">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1394,7 +1577,6 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
@@ -1440,13 +1622,13 @@
       <c r="BK14" s="12"/>
       <c r="BL14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:65">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1460,7 +1642,6 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
@@ -1506,13 +1687,13 @@
       <c r="BK15" s="12"/>
       <c r="BL15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:65">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -1526,7 +1707,6 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
@@ -1572,13 +1752,13 @@
       <c r="BK16" s="12"/>
       <c r="BL16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:64">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1592,7 +1772,6 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
@@ -1638,13 +1817,13 @@
       <c r="BK17" s="12"/>
       <c r="BL17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:64">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -1658,7 +1837,6 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
@@ -1704,13 +1882,13 @@
       <c r="BK18" s="12"/>
       <c r="BL18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:64">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1724,7 +1902,6 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
@@ -1770,13 +1947,13 @@
       <c r="BK19" s="12"/>
       <c r="BL19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:64">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -1790,7 +1967,6 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -1836,13 +2012,13 @@
       <c r="BK20" s="12"/>
       <c r="BL20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:64">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -1856,7 +2032,6 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
@@ -1902,13 +2077,13 @@
       <c r="BK21" s="12"/>
       <c r="BL21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:64">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -1922,7 +2097,6 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
@@ -1970,44 +2144,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId2" display="$.Procedures[*].Number"/>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <commentList sheetStid="1">
-    <comment s:ref="M6" rgbClr="8FC78C"/>
-    <comment s:ref="N6" rgbClr="8FC78C"/>
-    <comment s:ref="O6" rgbClr="8FC78C"/>
-    <comment s:ref="P6" rgbClr="8FC78C"/>
-    <comment s:ref="R6" rgbClr="8FC78C"/>
-    <comment s:ref="S6" rgbClr="8FC78C"/>
-    <comment s:ref="U6" rgbClr="8FC78C"/>
-    <comment s:ref="V6" rgbClr="8FC78C"/>
-    <comment s:ref="W6" rgbClr="8FC78C"/>
-    <comment s:ref="X6" rgbClr="8FC78C"/>
-    <comment s:ref="Y6" rgbClr="8FC78C"/>
-    <comment s:ref="Z6" rgbClr="8FC78C"/>
-    <comment s:ref="AA6" rgbClr="8FC78C"/>
-  </commentList>
-</comments>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/examples/reports/az-az/CompanyProceduresReportTemplate.xlsx
+++ b/examples/reports/az-az/CompanyProceduresReportTemplate.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bidzaar\src\etplight\backend\services\reportgenerator\src\Cognitive.ReportGenerator\Templates\az-az\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C76FC30-9CA0-40A9-A1FB-B9CFD66B0570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD35FC92-C17A-4FDD-B008-A0E901034F1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="İstək" sheetId="1" r:id="rId1"/>
+    <sheet name="Mallar və xidmətlər" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -24,190 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Все участники запроса, в т.ч. – приглашённые с площадки и по имейл</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Приняли участие
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Поданные предложения</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Только для завершённых запросов</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Цена заказа для завершённых запросов</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Члены команды запроса с правами «Владелец»</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Введённое значение в итогах для завершённых запросов </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Цена худшего предложения среди начальных предложений участников
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Цена лучшего предложения среди начальных предложений участников</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Цена начального предложения победителя</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Средняя цена среди начальных предложений участников
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Параметр запроса «Объем предложения участника»</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Число просмотров запроса сотрудниками других компаний</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>Şirkət</t>
   </si>
@@ -272,27 +91,9 @@
     <t>Sahiblər</t>
   </si>
   <si>
-    <t>Qiymətin dəyişdirilməsi</t>
-  </si>
-  <si>
     <t>Qənaət</t>
   </si>
   <si>
-    <t>İlkin ən əlverişsiz təklif</t>
-  </si>
-  <si>
-    <t>İlkin ən yaxşı təklif</t>
-  </si>
-  <si>
-    <t> Qalibin ilkin təklifi</t>
-  </si>
-  <si>
-    <t>İlkin təkliflərin ortam qiyməti</t>
-  </si>
-  <si>
-    <t>Təklifin həcmi</t>
-  </si>
-  <si>
     <t>Baxışlar</t>
   </si>
   <si>
@@ -356,27 +157,9 @@
     <t>$.Procedures[*].Responsible</t>
   </si>
   <si>
-    <t>$.Procedures[*].ChangeType</t>
-  </si>
-  <si>
     <t>$.Procedures[*].Saving</t>
   </si>
   <si>
-    <t>$.Procedures[*].FirstWorstPrice</t>
-  </si>
-  <si>
-    <t>$.Procedures[*].FirstBestPrice</t>
-  </si>
-  <si>
-    <t>$.Procedures[*].FirstWinnerPrice</t>
-  </si>
-  <si>
-    <t>$.Procedures[*].FirstAveragePrice</t>
-  </si>
-  <si>
-    <t>$.Procedures[*].RequireFull</t>
-  </si>
-  <si>
     <t>$.Procedures[*].ViewCount</t>
   </si>
   <si>
@@ -399,6 +182,63 @@
   </si>
   <si>
     <t>Xidmət operatorunun komissiyasını kim ödəyir</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ExternalId</t>
+  </si>
+  <si>
+    <t>Xarici id</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ParticipantsInvited</t>
+  </si>
+  <si>
+    <t>İştirakçılar dəvət olunur</t>
+  </si>
+  <si>
+    <t>Üzvlər bloklandı</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ParticipantsBlocked</t>
+  </si>
+  <si>
+    <t>$.Groups[*].ProcedureNumber</t>
+  </si>
+  <si>
+    <t>$.Groups[*].Name</t>
+  </si>
+  <si>
+    <t>$.Groups[*].ProposalItemsDeviationType</t>
+  </si>
+  <si>
+    <t>$.Groups[*].WinnersCount</t>
+  </si>
+  <si>
+    <t>$.Groups[*].Winners</t>
+  </si>
+  <si>
+    <t>Qrup başlığı</t>
+  </si>
+  <si>
+    <t>Təklif tələbləri</t>
+  </si>
+  <si>
+    <t>Qaliblər qty.</t>
+  </si>
+  <si>
+    <t>$.Groups[*].PermitUpDown</t>
+  </si>
+  <si>
+    <t>İlk təklifi təqdim etdikdən sonra</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ProcedureType</t>
+  </si>
+  <si>
+    <t>Alqı-satqı</t>
+  </si>
+  <si>
+    <t>mal və xidmətlər</t>
   </si>
 </sst>
 </file>
@@ -409,7 +249,63 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="#\ ##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="14">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -423,17 +319,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -442,14 +327,14 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -468,7 +353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -496,12 +381,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -540,10 +436,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Гиперссылка 2" xfId="3" xr:uid="{12B885AE-82F4-4D32-8103-C448EDC95E84}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{2C2522D0-DE1E-4DC4-8932-72F8D0DF1BB7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -922,52 +846,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BK22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="59.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" customWidth="1"/>
-    <col min="11" max="11" width="27.88671875" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" customWidth="1"/>
-    <col min="13" max="13" width="25.109375" customWidth="1"/>
-    <col min="14" max="14" width="30.5546875" customWidth="1"/>
-    <col min="15" max="15" width="24.44140625" customWidth="1"/>
-    <col min="16" max="17" width="16.44140625" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" customWidth="1"/>
-    <col min="19" max="19" width="30.6640625" customWidth="1"/>
-    <col min="20" max="20" width="22" customWidth="1"/>
-    <col min="21" max="21" width="58.6640625" customWidth="1"/>
-    <col min="22" max="26" width="20.6640625" customWidth="1"/>
-    <col min="27" max="27" width="27.21875" customWidth="1"/>
-    <col min="28" max="28" width="13.5546875" customWidth="1"/>
-    <col min="29" max="29" width="105.21875" customWidth="1"/>
+    <col min="1" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" customWidth="1"/>
+    <col min="4" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" customWidth="1"/>
+    <col min="12" max="12" width="27.44140625" customWidth="1"/>
+    <col min="13" max="13" width="27.88671875" customWidth="1"/>
+    <col min="14" max="14" width="26.88671875" customWidth="1"/>
+    <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" customWidth="1"/>
+    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="25" max="25" width="20.6640625" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" customWidth="1"/>
+    <col min="27" max="27" width="105.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="23.4">
+    <row r="1" spans="1:63" ht="23.4">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:63" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" s="2" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:63" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -975,102 +901,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="15.75" customHeight="1">
+    <row r="5" spans="1:63" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:65" s="6" customFormat="1" ht="33.6" customHeight="1" thickBot="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" s="6" customFormat="1" ht="33.6" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="P7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="S7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U7" s="4" t="s">
+      <c r="X7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="Z7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="AA7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
@@ -1105,97 +1027,91 @@
       <c r="BI7" s="5"/>
       <c r="BJ7" s="5"/>
       <c r="BK7" s="5"/>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="5"/>
-    </row>
-    <row r="8" spans="1:65" ht="15.6">
+    </row>
+    <row r="8" spans="1:63" ht="15.6">
       <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="L8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="M8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="N8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="O8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="P8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="R8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="S8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="U8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="V8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="W8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="X8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="Z8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="AA8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC8" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
@@ -1229,18 +1145,16 @@
       <c r="BH8" s="12"/>
       <c r="BI8" s="12"/>
       <c r="BJ8" s="12"/>
-      <c r="BK8" s="12"/>
-      <c r="BL8" s="12"/>
-    </row>
-    <row r="9" spans="1:65">
+    </row>
+    <row r="9" spans="1:63">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -1252,10 +1166,10 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -1294,18 +1208,16 @@
       <c r="BH9" s="12"/>
       <c r="BI9" s="12"/>
       <c r="BJ9" s="12"/>
-      <c r="BK9" s="12"/>
-      <c r="BL9" s="12"/>
-    </row>
-    <row r="10" spans="1:65">
+    </row>
+    <row r="10" spans="1:63">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -1317,10 +1229,10 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -1359,18 +1271,16 @@
       <c r="BH10" s="12"/>
       <c r="BI10" s="12"/>
       <c r="BJ10" s="12"/>
-      <c r="BK10" s="12"/>
-      <c r="BL10" s="12"/>
-    </row>
-    <row r="11" spans="1:65">
+    </row>
+    <row r="11" spans="1:63">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -1382,10 +1292,10 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -1424,18 +1334,16 @@
       <c r="BH11" s="12"/>
       <c r="BI11" s="12"/>
       <c r="BJ11" s="12"/>
-      <c r="BK11" s="12"/>
-      <c r="BL11" s="12"/>
-    </row>
-    <row r="12" spans="1:65">
+    </row>
+    <row r="12" spans="1:63">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -1447,10 +1355,10 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
@@ -1489,18 +1397,16 @@
       <c r="BH12" s="12"/>
       <c r="BI12" s="12"/>
       <c r="BJ12" s="12"/>
-      <c r="BK12" s="12"/>
-      <c r="BL12" s="12"/>
-    </row>
-    <row r="13" spans="1:65">
+    </row>
+    <row r="13" spans="1:63">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
@@ -1512,10 +1418,10 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
@@ -1554,18 +1460,16 @@
       <c r="BH13" s="12"/>
       <c r="BI13" s="12"/>
       <c r="BJ13" s="12"/>
-      <c r="BK13" s="12"/>
-      <c r="BL13" s="12"/>
-    </row>
-    <row r="14" spans="1:65">
+    </row>
+    <row r="14" spans="1:63">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -1577,10 +1481,10 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
@@ -1619,18 +1523,16 @@
       <c r="BH14" s="12"/>
       <c r="BI14" s="12"/>
       <c r="BJ14" s="12"/>
-      <c r="BK14" s="12"/>
-      <c r="BL14" s="12"/>
-    </row>
-    <row r="15" spans="1:65">
+    </row>
+    <row r="15" spans="1:63">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
@@ -1642,10 +1544,10 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
@@ -1684,18 +1586,16 @@
       <c r="BH15" s="12"/>
       <c r="BI15" s="12"/>
       <c r="BJ15" s="12"/>
-      <c r="BK15" s="12"/>
-      <c r="BL15" s="12"/>
-    </row>
-    <row r="16" spans="1:65">
+    </row>
+    <row r="16" spans="1:63">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -1707,10 +1607,10 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
@@ -1749,18 +1649,16 @@
       <c r="BH16" s="12"/>
       <c r="BI16" s="12"/>
       <c r="BJ16" s="12"/>
-      <c r="BK16" s="12"/>
-      <c r="BL16" s="12"/>
-    </row>
-    <row r="17" spans="1:64">
+    </row>
+    <row r="17" spans="1:62">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
@@ -1772,10 +1670,10 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
@@ -1814,18 +1712,16 @@
       <c r="BH17" s="12"/>
       <c r="BI17" s="12"/>
       <c r="BJ17" s="12"/>
-      <c r="BK17" s="12"/>
-      <c r="BL17" s="12"/>
-    </row>
-    <row r="18" spans="1:64">
+    </row>
+    <row r="18" spans="1:62">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
@@ -1837,10 +1733,10 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
@@ -1879,18 +1775,16 @@
       <c r="BH18" s="12"/>
       <c r="BI18" s="12"/>
       <c r="BJ18" s="12"/>
-      <c r="BK18" s="12"/>
-      <c r="BL18" s="12"/>
-    </row>
-    <row r="19" spans="1:64">
+    </row>
+    <row r="19" spans="1:62">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
@@ -1902,10 +1796,10 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
@@ -1944,18 +1838,16 @@
       <c r="BH19" s="12"/>
       <c r="BI19" s="12"/>
       <c r="BJ19" s="12"/>
-      <c r="BK19" s="12"/>
-      <c r="BL19" s="12"/>
-    </row>
-    <row r="20" spans="1:64">
+    </row>
+    <row r="20" spans="1:62">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -1967,10 +1859,10 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
@@ -2009,18 +1901,16 @@
       <c r="BH20" s="12"/>
       <c r="BI20" s="12"/>
       <c r="BJ20" s="12"/>
-      <c r="BK20" s="12"/>
-      <c r="BL20" s="12"/>
-    </row>
-    <row r="21" spans="1:64">
+    </row>
+    <row r="21" spans="1:62">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -2032,10 +1922,10 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
@@ -2074,18 +1964,16 @@
       <c r="BH21" s="12"/>
       <c r="BI21" s="12"/>
       <c r="BJ21" s="12"/>
-      <c r="BK21" s="12"/>
-      <c r="BL21" s="12"/>
-    </row>
-    <row r="22" spans="1:64">
+    </row>
+    <row r="22" spans="1:62">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
@@ -2097,10 +1985,10 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
@@ -2139,8 +2027,6 @@
       <c r="BH22" s="12"/>
       <c r="BI22" s="12"/>
       <c r="BJ22" s="12"/>
-      <c r="BK22" s="12"/>
-      <c r="BL22" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2148,6 +2034,79 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBA2E8E-4470-47E4-9B2A-396D3CD403D4}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.4">
+      <c r="A1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.8" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="$.Procedures[*].Number" xr:uid="{29B63FFB-4B7F-413A-B606-5CEA79F5C32B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>